--- a/data/Property data.xlsx
+++ b/data/Property data.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
   <si>
     <t xml:space="preserve">number1</t>
   </si>
@@ -46,7 +49,16 @@
     <t xml:space="preserve">owner_name1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cypress automation property</t>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streettype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 01</t>
   </si>
   <si>
     <t xml:space="preserve">Cypress suburb</t>
@@ -56,6 +68,93 @@
   </si>
   <si>
     <t xml:space="preserve">Test Auto Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasmania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Capital Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New South Wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress automation property 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescent</t>
   </si>
 </sst>
 </file>
@@ -95,12 +194,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,13 +242,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -163,6 +284,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF5983B0"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -171,104 +352,426 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>5008</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>445</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>5008</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B6" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="h.milroyperera+press02@gmail.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId2" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H4" r:id="rId3" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H5" r:id="rId4" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H6" r:id="rId5" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H7" r:id="rId6" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H8" r:id="rId7" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H9" r:id="rId8" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H10" r:id="rId9" display="h.milroyperera+press02@gmail.com"/>
+    <hyperlink ref="H11" r:id="rId10" display="h.milroyperera+press02@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
